--- a/output.xlsx
+++ b/output.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="12300" windowHeight="6792"/>
   </bookViews>
   <sheets>
     <sheet name="Alinan Veriler" sheetId="1" r:id="rId1"/>
     <sheet name="Haftalik" sheetId="2" r:id="rId2"/>
     <sheet name="Aylik" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -21,18 +22,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>35000212</t>
-  </si>
-  <si>
-    <t>31001045</t>
-  </si>
-  <si>
-    <t>35000313</t>
-  </si>
-  <si>
-    <t>31000368</t>
-  </si>
-  <si>
     <t>2016-05-02</t>
   </si>
   <si>
@@ -1117,13 +1106,25 @@
   </si>
   <si>
     <t>Nis</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1174,12 +1175,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1198,11 +1214,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3330,6 +3349,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4403,6 +4423,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5476,6 +5497,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6549,34 +6571,51 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
+        <c:smooth val="0"/>
+        <c:axId val="168943616"/>
+        <c:axId val="168945152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50010001"/>
+        <c:axId val="168943616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
+        <c:crossAx val="168945152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010002"/>
+        <c:axId val="168945152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
+        <c:crossAx val="168943616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6584,8 +6623,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6597,7 +6639,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6615,19 +6667,22 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>hafta ici</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Haftalik!$A$1:$A$50</c:f>
@@ -6797,7 +6852,7 @@
                   <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.8</c:v>
@@ -6887,13 +6942,13 @@
                   <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.6</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.4</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>6</c:v>
@@ -6911,7 +6966,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>6.2</c:v>
@@ -6953,6 +7008,7 @@
           <c:tx>
             <c:v>hafta sonu</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Haftalik!$C$1:$C$50</c:f>
@@ -7113,14 +7169,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50020001"/>
-        <c:axId val="50020002"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="140376704"/>
+        <c:axId val="169083648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50020001"/>
+        <c:axId val="140376704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7138,9 +7204,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -7149,34 +7217,40 @@
             <a:pPr>
               <a:defRPr i="1" baseline="0"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50020002"/>
+        <c:crossAx val="169083648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50020002"/>
+        <c:axId val="169083648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020001"/>
+        <c:crossAx val="140376704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7188,7 +7262,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7206,19 +7290,22 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>hafta ici</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Haftalik!$A$1:$A$50</c:f>
@@ -7388,13 +7475,13 @@
                   <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.199999999999999</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.2</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.800000000000001</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.6</c:v>
@@ -7436,7 +7523,7 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.6</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5.4</c:v>
@@ -7469,7 +7556,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.800000000000001</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>9.4</c:v>
@@ -7493,7 +7580,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.199999999999999</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>7.2</c:v>
@@ -7517,7 +7604,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.199999999999999</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>7.8</c:v>
@@ -7526,7 +7613,7 @@
                   <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.800000000000001</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>7.8</c:v>
@@ -7544,6 +7631,7 @@
           <c:tx>
             <c:v>hafta sonu</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Haftalik!$C$51:$C$100</c:f>
@@ -7704,14 +7792,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50030001"/>
-        <c:axId val="50030002"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="169104896"/>
+        <c:axId val="169106816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50030001"/>
+        <c:axId val="169104896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7729,9 +7827,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -7740,34 +7840,40 @@
             <a:pPr>
               <a:defRPr i="1" baseline="0"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50030002"/>
+        <c:crossAx val="169106816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50030002"/>
+        <c:axId val="169106816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50030001"/>
+        <c:crossAx val="169104896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7779,7 +7885,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7797,19 +7913,22 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Urun 1</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Aylik!$A$1:$A$12</c:f>
@@ -7861,19 +7980,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.8859649122807017</c:v>
+                  <c:v>0.88596491228070173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6355140186915887</c:v>
+                  <c:v>0.63551401869158874</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9591836734693877</c:v>
+                  <c:v>0.95918367346938771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7522123893805309</c:v>
+                  <c:v>0.75221238938053092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7363636363636363</c:v>
+                  <c:v>0.73636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.324786324786325</c:v>
@@ -7888,7 +8007,7 @@
                   <c:v>2.268817204301075</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.321428571428572</c:v>
+                  <c:v>2.3214285714285721</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.096774193548387</c:v>
@@ -7906,6 +8025,7 @@
           <c:tx>
             <c:v>Urun 2</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Aylik!$C$1:$C$12</c:f>
@@ -7913,25 +8033,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.035087719298246</c:v>
+                  <c:v>3.0350877192982462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.252336448598131</c:v>
+                  <c:v>2.2523364485981312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.051020408163265</c:v>
+                  <c:v>2.0510204081632648</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.115044247787611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.018181818181818</c:v>
+                  <c:v>3.0181818181818181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.623931623931624</c:v>
+                  <c:v>3.6239316239316239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.038834951456311</c:v>
+                  <c:v>3.0388349514563111</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.279569892473118</c:v>
@@ -7952,41 +8072,59 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50040001"/>
-        <c:axId val="50040002"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="169134336"/>
+        <c:axId val="169136128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50040001"/>
+        <c:axId val="169134336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50040002"/>
+        <c:crossAx val="169136128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50040002"/>
+        <c:axId val="169136128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50040001"/>
+        <c:crossAx val="169134336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8206,6 +8344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -8240,6 +8379,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8415,36 +8555,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>4</v>
@@ -8459,9 +8601,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>9</v>
@@ -8476,9 +8618,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -8493,9 +8635,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -8510,9 +8652,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -8527,9 +8669,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -8544,9 +8686,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
@@ -8561,9 +8703,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
@@ -8578,9 +8720,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -8595,9 +8737,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
@@ -8612,9 +8754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -8629,9 +8771,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -8646,9 +8788,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -8663,9 +8805,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -8680,9 +8822,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -8697,9 +8839,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -8714,9 +8856,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -8731,9 +8873,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -8748,9 +8890,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>6</v>
@@ -8765,9 +8907,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -8782,9 +8924,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>6</v>
@@ -8799,9 +8941,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>8</v>
@@ -8816,9 +8958,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -8833,9 +8975,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
@@ -8850,9 +8992,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -8867,9 +9009,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>6</v>
@@ -8884,9 +9026,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -8901,9 +9043,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
@@ -8918,9 +9060,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -8935,9 +9077,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -8952,9 +9094,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -8969,9 +9111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
@@ -8986,9 +9128,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -9003,9 +9145,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
@@ -9020,9 +9162,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
@@ -9037,9 +9179,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
@@ -9054,9 +9196,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -9071,9 +9213,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>4</v>
@@ -9088,9 +9230,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>3</v>
@@ -9105,9 +9247,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>4</v>
@@ -9122,9 +9264,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>4</v>
@@ -9139,9 +9281,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>5</v>
@@ -9156,9 +9298,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>4</v>
@@ -9173,9 +9315,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -9190,9 +9332,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -9207,9 +9349,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -9224,9 +9366,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
@@ -9241,9 +9383,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>2</v>
@@ -9258,9 +9400,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -9275,9 +9417,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
@@ -9292,9 +9434,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -9309,9 +9451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>7</v>
@@ -9326,9 +9468,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
@@ -9343,9 +9485,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
@@ -9360,9 +9502,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -9377,9 +9519,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>4</v>
@@ -9394,9 +9536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>3</v>
@@ -9411,9 +9553,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>3</v>
@@ -9428,9 +9570,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -9445,9 +9587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -9462,9 +9604,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -9479,9 +9621,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
@@ -9496,9 +9638,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -9513,9 +9655,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>5</v>
@@ -9530,9 +9672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>2</v>
@@ -9547,9 +9689,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -9564,9 +9706,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>3</v>
@@ -9581,9 +9723,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>4</v>
@@ -9598,9 +9740,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>2</v>
@@ -9615,9 +9757,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>5</v>
@@ -9632,9 +9774,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
@@ -9649,9 +9791,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>3</v>
@@ -9666,9 +9808,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>5</v>
@@ -9683,9 +9825,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>9</v>
@@ -9700,9 +9842,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>2</v>
@@ -9717,9 +9859,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>6</v>
@@ -9734,9 +9876,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -9751,9 +9893,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>5</v>
@@ -9768,9 +9910,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>3</v>
@@ -9785,9 +9927,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>3</v>
@@ -9802,9 +9944,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>2</v>
@@ -9819,9 +9961,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>4</v>
@@ -9836,9 +9978,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>0</v>
@@ -9853,9 +9995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>1</v>
@@ -9870,9 +10012,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>4</v>
@@ -9887,9 +10029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>6</v>
@@ -9904,9 +10046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>2</v>
@@ -9921,9 +10063,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>3</v>
@@ -9938,9 +10080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
@@ -9955,9 +10097,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>4</v>
@@ -9972,9 +10114,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>2</v>
@@ -9989,9 +10131,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>10</v>
@@ -10006,9 +10148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>2</v>
@@ -10023,9 +10165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>2</v>
@@ -10040,9 +10182,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
@@ -10057,9 +10199,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>2</v>
@@ -10074,9 +10216,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>2</v>
@@ -10091,9 +10233,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>1</v>
@@ -10108,9 +10250,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2">
         <v>2</v>
@@ -10125,9 +10267,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2">
         <v>2</v>
@@ -10142,9 +10284,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>2</v>
@@ -10159,9 +10301,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2">
         <v>3</v>
@@ -10176,9 +10318,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>5</v>
@@ -10193,9 +10335,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2">
         <v>5</v>
@@ -10210,9 +10352,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2">
         <v>0</v>
@@ -10227,9 +10369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2">
         <v>3</v>
@@ -10244,9 +10386,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2">
         <v>0</v>
@@ -10261,9 +10403,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2">
         <v>1</v>
@@ -10278,9 +10420,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
@@ -10295,9 +10437,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2">
         <v>0</v>
@@ -10312,9 +10454,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2">
         <v>0</v>
@@ -10329,9 +10471,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
@@ -10346,9 +10488,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>3</v>
@@ -10363,9 +10505,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>1</v>
@@ -10380,9 +10522,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>0</v>
@@ -10397,9 +10539,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
@@ -10414,9 +10556,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>3</v>
@@ -10431,9 +10573,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>7</v>
@@ -10448,9 +10590,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>15</v>
@@ -10465,9 +10607,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>1</v>
@@ -10482,9 +10624,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>5</v>
@@ -10499,9 +10641,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
         <v>4</v>
@@ -10516,9 +10658,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>2</v>
@@ -10533,9 +10675,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2">
         <v>2</v>
@@ -10550,9 +10692,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>2</v>
@@ -10567,9 +10709,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>3</v>
@@ -10584,9 +10726,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
         <v>2</v>
@@ -10601,9 +10743,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2">
         <v>1</v>
@@ -10618,9 +10760,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2">
         <v>1</v>
@@ -10635,9 +10777,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2">
         <v>4</v>
@@ -10652,9 +10794,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2">
         <v>4</v>
@@ -10669,9 +10811,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
         <v>0</v>
@@ -10686,9 +10828,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2">
         <v>4</v>
@@ -10703,9 +10845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2">
         <v>0</v>
@@ -10720,9 +10862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2">
         <v>1</v>
@@ -10737,9 +10879,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2">
         <v>1</v>
@@ -10754,9 +10896,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2">
         <v>1</v>
@@ -10771,9 +10913,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2">
         <v>1</v>
@@ -10788,9 +10930,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>5</v>
@@ -10805,9 +10947,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2">
         <v>3</v>
@@ -10822,9 +10964,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2">
         <v>4</v>
@@ -10839,9 +10981,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>3</v>
@@ -10856,9 +10998,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2">
         <v>0</v>
@@ -10873,9 +11015,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2">
         <v>2</v>
@@ -10890,9 +11032,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>2</v>
@@ -10907,9 +11049,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2">
         <v>3</v>
@@ -10924,9 +11066,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2">
         <v>6</v>
@@ -10941,9 +11083,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2">
         <v>3</v>
@@ -10958,9 +11100,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2">
         <v>7</v>
@@ -10975,9 +11117,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2">
         <v>5</v>
@@ -10992,9 +11134,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2">
         <v>3</v>
@@ -11009,9 +11151,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2">
         <v>6</v>
@@ -11026,9 +11168,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2">
         <v>3</v>
@@ -11043,9 +11185,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2">
         <v>3</v>
@@ -11060,9 +11202,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>8</v>
@@ -11077,9 +11219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2">
         <v>1</v>
@@ -11094,9 +11236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2">
         <v>8</v>
@@ -11111,9 +11253,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2">
         <v>6</v>
@@ -11128,9 +11270,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2">
         <v>1</v>
@@ -11145,9 +11287,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2">
         <v>3</v>
@@ -11162,9 +11304,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2">
         <v>2</v>
@@ -11179,9 +11321,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2">
         <v>8</v>
@@ -11196,9 +11338,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2">
         <v>1</v>
@@ -11213,9 +11355,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2">
         <v>6</v>
@@ -11230,9 +11372,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2">
         <v>5</v>
@@ -11247,9 +11389,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2">
         <v>4</v>
@@ -11264,9 +11406,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>4</v>
@@ -11281,9 +11423,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B169" s="2">
         <v>3</v>
@@ -11298,9 +11440,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2">
         <v>4</v>
@@ -11315,9 +11457,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2">
         <v>6</v>
@@ -11332,9 +11474,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2">
         <v>6</v>
@@ -11349,9 +11491,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2">
         <v>3</v>
@@ -11366,9 +11508,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2">
         <v>2</v>
@@ -11383,9 +11525,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2">
         <v>5</v>
@@ -11400,9 +11542,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B176" s="2">
         <v>8</v>
@@ -11417,9 +11559,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B177" s="2">
         <v>12</v>
@@ -11434,9 +11576,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2">
         <v>1</v>
@@ -11451,9 +11593,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2">
         <v>8</v>
@@ -11468,9 +11610,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B180" s="2">
         <v>2</v>
@@ -11485,9 +11627,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B181" s="2">
         <v>5</v>
@@ -11502,9 +11644,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2">
         <v>7</v>
@@ -11519,9 +11661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2">
         <v>13</v>
@@ -11536,9 +11678,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>7</v>
@@ -11553,9 +11695,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2">
         <v>7</v>
@@ -11570,9 +11712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2">
         <v>2</v>
@@ -11587,9 +11729,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2">
         <v>7</v>
@@ -11604,9 +11746,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2">
         <v>6</v>
@@ -11621,9 +11763,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2">
         <v>8</v>
@@ -11638,9 +11780,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B190" s="2">
         <v>1</v>
@@ -11655,9 +11797,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B191" s="2">
         <v>7</v>
@@ -11672,9 +11814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2">
         <v>7</v>
@@ -11689,9 +11831,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B193" s="2">
         <v>3</v>
@@ -11706,9 +11848,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2">
         <v>3</v>
@@ -11723,9 +11865,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>11</v>
@@ -11740,9 +11882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2">
         <v>4</v>
@@ -11757,9 +11899,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2">
         <v>6</v>
@@ -11774,9 +11916,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2">
         <v>8</v>
@@ -11791,9 +11933,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2">
         <v>3</v>
@@ -11808,9 +11950,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2">
         <v>4</v>
@@ -11825,9 +11967,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2">
         <v>4</v>
@@ -11842,9 +11984,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B202" s="2">
         <v>5</v>
@@ -11859,9 +12001,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B203" s="2">
         <v>9</v>
@@ -11876,9 +12018,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>6</v>
@@ -11893,9 +12035,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B205" s="2">
         <v>10</v>
@@ -11910,9 +12052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B206" s="2">
         <v>5</v>
@@ -11927,9 +12069,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B207" s="2">
         <v>4</v>
@@ -11944,9 +12086,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B208" s="2">
         <v>4</v>
@@ -11961,9 +12103,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B209" s="2">
         <v>4</v>
@@ -11978,9 +12120,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B210" s="2">
         <v>4</v>
@@ -11995,9 +12137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B211" s="2">
         <v>6</v>
@@ -12012,9 +12154,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B212" s="2">
         <v>6</v>
@@ -12029,9 +12171,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B213" s="2">
         <v>5</v>
@@ -12046,9 +12188,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B214" s="2">
         <v>8</v>
@@ -12063,9 +12205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B215" s="2">
         <v>4</v>
@@ -12080,9 +12222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B216" s="2">
         <v>4</v>
@@ -12097,9 +12239,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2">
         <v>9</v>
@@ -12114,9 +12256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2">
         <v>6</v>
@@ -12131,9 +12273,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B219" s="2">
         <v>3</v>
@@ -12148,9 +12290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2">
         <v>4</v>
@@ -12165,9 +12307,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B221" s="2">
         <v>6</v>
@@ -12182,9 +12324,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2">
         <v>5</v>
@@ -12199,9 +12341,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2">
         <v>5</v>
@@ -12216,9 +12358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B224" s="2">
         <v>2</v>
@@ -12233,9 +12375,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B225" s="2">
         <v>5</v>
@@ -12250,9 +12392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B226" s="2">
         <v>5</v>
@@ -12267,9 +12409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B227" s="2">
         <v>2</v>
@@ -12284,9 +12426,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B228" s="2">
         <v>2</v>
@@ -12301,9 +12443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B229" s="2">
         <v>9</v>
@@ -12318,9 +12460,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B230" s="2">
         <v>8</v>
@@ -12335,9 +12477,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2">
         <v>5</v>
@@ -12352,9 +12494,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2">
         <v>4</v>
@@ -12369,9 +12511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2">
         <v>3</v>
@@ -12386,9 +12528,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2">
         <v>6</v>
@@ -12403,9 +12545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2">
         <v>8</v>
@@ -12420,9 +12562,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B236" s="2">
         <v>1</v>
@@ -12437,9 +12579,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2">
         <v>4</v>
@@ -12454,9 +12596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B238" s="2">
         <v>7</v>
@@ -12471,9 +12613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B239" s="2">
         <v>5</v>
@@ -12488,9 +12630,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B240" s="2">
         <v>8</v>
@@ -12505,9 +12647,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B241" s="2">
         <v>5</v>
@@ -12522,9 +12664,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B242" s="2">
         <v>2</v>
@@ -12539,9 +12681,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B243" s="2">
         <v>7</v>
@@ -12556,9 +12698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B244" s="2">
         <v>8</v>
@@ -12573,9 +12715,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B245" s="2">
         <v>2</v>
@@ -12590,9 +12732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B246" s="2">
         <v>6</v>
@@ -12607,9 +12749,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B247" s="2">
         <v>4</v>
@@ -12624,9 +12766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2">
         <v>16</v>
@@ -12641,9 +12783,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B249" s="2">
         <v>5</v>
@@ -12658,9 +12800,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B250" s="2">
         <v>5</v>
@@ -12675,9 +12817,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2">
         <v>5</v>
@@ -12692,9 +12834,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B252" s="2">
         <v>4</v>
@@ -12709,9 +12851,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B253" s="2">
         <v>9</v>
@@ -12726,9 +12868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B254" s="2">
         <v>1</v>
@@ -12743,9 +12885,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2">
         <v>9</v>
@@ -12760,9 +12902,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B256" s="2">
         <v>8</v>
@@ -12777,9 +12919,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B257" s="2">
         <v>7</v>
@@ -12794,9 +12936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2">
         <v>6</v>
@@ -12811,9 +12953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B259" s="2">
         <v>7</v>
@@ -12828,9 +12970,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B260" s="2">
         <v>6</v>
@@ -12845,9 +12987,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B261" s="2">
         <v>4</v>
@@ -12862,9 +13004,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B262" s="2">
         <v>4</v>
@@ -12879,9 +13021,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B263" s="2">
         <v>4</v>
@@ -12896,9 +13038,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B264" s="2">
         <v>4</v>
@@ -12913,9 +13055,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B265" s="2">
         <v>8</v>
@@ -12930,9 +13072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B266" s="2">
         <v>13</v>
@@ -12947,9 +13089,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B267" s="2">
         <v>6</v>
@@ -12964,9 +13106,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B268" s="2">
         <v>8</v>
@@ -12981,9 +13123,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B269" s="2">
         <v>8</v>
@@ -12998,9 +13140,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B270" s="2">
         <v>14</v>
@@ -13015,9 +13157,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B271" s="2">
         <v>5</v>
@@ -13032,9 +13174,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B272" s="2">
         <v>5</v>
@@ -13049,9 +13191,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B273" s="2">
         <v>12</v>
@@ -13066,9 +13208,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B274" s="2">
         <v>11</v>
@@ -13083,9 +13225,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B275" s="2">
         <v>4</v>
@@ -13100,9 +13242,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B276" s="2">
         <v>3</v>
@@ -13117,9 +13259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B277" s="2">
         <v>5</v>
@@ -13134,9 +13276,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B278" s="2">
         <v>6</v>
@@ -13151,9 +13293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2">
         <v>5</v>
@@ -13168,9 +13310,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B280" s="2">
         <v>2</v>
@@ -13185,9 +13327,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B281" s="2">
         <v>9</v>
@@ -13202,9 +13344,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B282" s="2">
         <v>9</v>
@@ -13219,9 +13361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B283" s="2">
         <v>6</v>
@@ -13236,9 +13378,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B284" s="2">
         <v>4</v>
@@ -13253,9 +13395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B285" s="2">
         <v>3</v>
@@ -13270,9 +13412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B286" s="2">
         <v>9</v>
@@ -13287,9 +13429,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2">
         <v>6</v>
@@ -13304,9 +13446,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B288" s="2">
         <v>11</v>
@@ -13321,9 +13463,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B289" s="2">
         <v>8</v>
@@ -13338,9 +13480,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B290" s="2">
         <v>10</v>
@@ -13355,9 +13497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B291" s="2">
         <v>5</v>
@@ -13372,9 +13514,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B292" s="2">
         <v>3</v>
@@ -13389,9 +13531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B293" s="2">
         <v>2</v>
@@ -13406,9 +13548,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B294" s="2">
         <v>9</v>
@@ -13423,9 +13565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B295" s="2">
         <v>8</v>
@@ -13440,9 +13582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B296" s="2">
         <v>11</v>
@@ -13457,9 +13599,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B297" s="2">
         <v>5</v>
@@ -13474,9 +13616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B298" s="2">
         <v>12</v>
@@ -13491,9 +13633,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B299" s="2">
         <v>3</v>
@@ -13508,9 +13650,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B300" s="2">
         <v>5</v>
@@ -13525,9 +13667,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B301" s="2">
         <v>7</v>
@@ -13542,9 +13684,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B302" s="2">
         <v>19</v>
@@ -13559,9 +13701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B303" s="2">
         <v>7</v>
@@ -13576,9 +13718,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B304" s="2">
         <v>6</v>
@@ -13593,9 +13735,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B305" s="2">
         <v>4</v>
@@ -13610,9 +13752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B306" s="2">
         <v>10</v>
@@ -13627,9 +13769,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B307" s="2">
         <v>5</v>
@@ -13644,9 +13786,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B308" s="2">
         <v>11</v>
@@ -13661,9 +13803,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B309" s="2">
         <v>5</v>
@@ -13678,9 +13820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B310" s="2">
         <v>6</v>
@@ -13695,9 +13837,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B311" s="2">
         <v>8</v>
@@ -13712,9 +13854,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B312" s="2">
         <v>8</v>
@@ -13729,9 +13871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B313" s="2">
         <v>5</v>
@@ -13746,9 +13888,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B314" s="2">
         <v>2</v>
@@ -13763,9 +13905,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B315" s="2">
         <v>3</v>
@@ -13780,9 +13922,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B316" s="2">
         <v>19</v>
@@ -13797,9 +13939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B317" s="2">
         <v>8</v>
@@ -13814,9 +13956,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B318" s="2">
         <v>4</v>
@@ -13831,9 +13973,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B319" s="2">
         <v>7</v>
@@ -13848,9 +13990,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B320" s="2">
         <v>7</v>
@@ -13865,9 +14007,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B321" s="2">
         <v>2</v>
@@ -13882,9 +14024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B322" s="2">
         <v>4</v>
@@ -13899,9 +14041,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B323" s="2">
         <v>8</v>
@@ -13916,9 +14058,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B324" s="2">
         <v>10</v>
@@ -13933,9 +14075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B325" s="2">
         <v>5</v>
@@ -13950,9 +14092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B326" s="2">
         <v>6</v>
@@ -13967,9 +14109,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B327" s="2">
         <v>5</v>
@@ -13984,9 +14126,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B328" s="2">
         <v>8</v>
@@ -14001,9 +14143,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B329" s="2">
         <v>3</v>
@@ -14018,9 +14160,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B330" s="2">
         <v>2</v>
@@ -14035,9 +14177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B331" s="2">
         <v>9</v>
@@ -14052,9 +14194,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B332" s="2">
         <v>5</v>
@@ -14069,9 +14211,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B333" s="2">
         <v>4</v>
@@ -14086,9 +14228,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B334" s="2">
         <v>5</v>
@@ -14103,9 +14245,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B335" s="2">
         <v>7</v>
@@ -14120,9 +14262,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B336" s="2">
         <v>3</v>
@@ -14137,9 +14279,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B337" s="2">
         <v>11</v>
@@ -14154,9 +14296,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B338" s="2">
         <v>9</v>
@@ -14171,9 +14313,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B339" s="2">
         <v>10</v>
@@ -14188,9 +14330,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B340" s="2">
         <v>2</v>
@@ -14205,9 +14347,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B341" s="2">
         <v>7</v>
@@ -14222,9 +14364,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B342" s="2">
         <v>4</v>
@@ -14239,9 +14381,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B343" s="2">
         <v>9</v>
@@ -14256,9 +14398,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B344" s="2">
         <v>9</v>
@@ -14273,9 +14415,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B345" s="2">
         <v>10</v>
@@ -14290,9 +14432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B346" s="2">
         <v>8</v>
@@ -14307,9 +14449,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B347" s="2">
         <v>6</v>
@@ -14324,9 +14466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B348" s="2">
         <v>4</v>
@@ -14341,9 +14483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B349" s="2">
         <v>9</v>
@@ -14358,9 +14500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B350" s="2">
         <v>10</v>
@@ -14375,9 +14517,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B351" s="2">
         <v>4</v>
@@ -14399,14 +14541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -14417,18 +14559,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -14439,7 +14581,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -14450,7 +14592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -14461,7 +14603,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -14472,7 +14614,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -14483,7 +14625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -14494,7 +14636,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -14505,7 +14647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -14516,7 +14658,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -14527,7 +14669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -14538,7 +14680,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -14549,7 +14691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -14560,7 +14702,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -14571,7 +14713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -14582,7 +14724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -14593,7 +14735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -14604,7 +14746,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -14615,7 +14757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -14626,7 +14768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -14637,7 +14779,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -14648,7 +14790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -14659,7 +14801,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -14670,7 +14812,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -14681,7 +14823,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -14692,7 +14834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -14703,7 +14845,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -14714,7 +14856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -14725,7 +14867,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -14736,7 +14878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -14747,18 +14889,18 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C32" s="2">
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -14769,18 +14911,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C34" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -14791,7 +14933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -14802,7 +14944,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -14813,7 +14955,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -14824,7 +14966,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -14835,18 +14977,18 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C40" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -14857,7 +14999,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -14868,7 +15010,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -14879,7 +15021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -14890,7 +15032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -14901,7 +15043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -14912,7 +15054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -14923,7 +15065,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -14934,7 +15076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -14945,7 +15087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -14956,7 +15098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -14967,40 +15109,40 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C52" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C53" s="2">
         <v>13.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C54" s="2">
         <v>19.5</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -15011,7 +15153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -15022,7 +15164,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>57</v>
       </c>
@@ -15033,7 +15175,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>58</v>
       </c>
@@ -15044,7 +15186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>59</v>
       </c>
@@ -15055,7 +15197,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -15066,7 +15208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>61</v>
       </c>
@@ -15077,7 +15219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>62</v>
       </c>
@@ -15088,7 +15230,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>63</v>
       </c>
@@ -15099,7 +15241,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -15110,7 +15252,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -15121,7 +15263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -15132,7 +15274,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>67</v>
       </c>
@@ -15143,18 +15285,18 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C68" s="2">
         <v>6.5</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>69</v>
       </c>
@@ -15165,7 +15307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>70</v>
       </c>
@@ -15176,7 +15318,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>71</v>
       </c>
@@ -15187,7 +15329,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>72</v>
       </c>
@@ -15198,7 +15340,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>73</v>
       </c>
@@ -15209,7 +15351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>74</v>
       </c>
@@ -15220,7 +15362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>75</v>
       </c>
@@ -15231,7 +15373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>76</v>
       </c>
@@ -15242,7 +15384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>77</v>
       </c>
@@ -15253,7 +15395,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>78</v>
       </c>
@@ -15264,18 +15406,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C79" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>80</v>
       </c>
@@ -15286,7 +15428,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>81</v>
       </c>
@@ -15297,7 +15439,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>82</v>
       </c>
@@ -15308,7 +15450,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>83</v>
       </c>
@@ -15319,7 +15461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>84</v>
       </c>
@@ -15330,7 +15472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>85</v>
       </c>
@@ -15341,7 +15483,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>86</v>
       </c>
@@ -15352,18 +15494,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C87" s="2">
         <v>10.5</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>88</v>
       </c>
@@ -15374,7 +15516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>89</v>
       </c>
@@ -15385,7 +15527,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>90</v>
       </c>
@@ -15396,7 +15538,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>91</v>
       </c>
@@ -15407,7 +15549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>92</v>
       </c>
@@ -15418,7 +15560,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>93</v>
       </c>
@@ -15429,7 +15571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>94</v>
       </c>
@@ -15440,18 +15582,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C95" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>96</v>
       </c>
@@ -15462,7 +15604,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>97</v>
       </c>
@@ -15473,18 +15615,18 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>98</v>
       </c>
       <c r="B98" s="2">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C98" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>99</v>
       </c>
@@ -15495,7 +15637,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>100</v>
       </c>
@@ -15513,93 +15655,93 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B1">
-        <v>0.8859649122807017</v>
+        <v>0.88596491228070173</v>
       </c>
       <c r="C1">
-        <v>3.035087719298246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>3.0350877192982462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B2">
-        <v>0.6355140186915887</v>
+        <v>0.63551401869158874</v>
       </c>
       <c r="C2">
-        <v>2.252336448598131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2.2523364485981312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B3">
-        <v>0.9591836734693877</v>
+        <v>0.95918367346938771</v>
       </c>
       <c r="C3">
-        <v>2.051020408163265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.0510204081632648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B4">
-        <v>0.7522123893805309</v>
+        <v>0.75221238938053092</v>
       </c>
       <c r="C4">
         <v>2.115044247787611</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B5">
-        <v>0.7363636363636363</v>
+        <v>0.73636363636363633</v>
       </c>
       <c r="C5">
-        <v>3.018181818181818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3.0181818181818181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B6">
         <v>1.324786324786325</v>
       </c>
       <c r="C6">
-        <v>3.623931623931624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>3.6239316239316239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B7">
         <v>1.621359223300971</v>
       </c>
       <c r="C7">
-        <v>3.038834951456311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3.0388349514563111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B8">
         <v>1.655913978494624</v>
@@ -15608,9 +15750,9 @@
         <v>3.279569892473118</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B9">
         <v>2.268817204301075</v>
@@ -15619,20 +15761,20 @@
         <v>2.67741935483871</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B10">
-        <v>2.321428571428572</v>
+        <v>2.3214285714285721</v>
       </c>
       <c r="C10">
         <v>2.714285714285714</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B11">
         <v>2.096774193548387</v>
@@ -15641,9 +15783,9 @@
         <v>3.408602150537634</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B12">
         <v>2.395833333333333</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -7792,7 +7792,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>1 Gundeki Ortalama Satis Miktari</a:t>
+              <a:t>Ortalama Satis Miktari</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7801,15 +7801,24 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Urun 1</c:v>
+            <c:v>Urun 1 - Gunluk</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Aylik!$A$1:$A$12</c:f>
@@ -7861,40 +7870,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.8859649122807017</c:v>
+                  <c:v>3.366666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6355140186915887</c:v>
+                  <c:v>2.266666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9591836734693877</c:v>
+                  <c:v>3.032258064516129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7522123893805309</c:v>
+                  <c:v>2.741935483870968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7363636363636363</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.324786324786325</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.621359223300971</c:v>
+                  <c:v>5.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.655913978494624</c:v>
+                  <c:v>4.967741935483871</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.268817204301075</c:v>
+                  <c:v>6.806451612903226</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.321428571428572</c:v>
+                  <c:v>6.964285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.096774193548387</c:v>
+                  <c:v>6.290322580645161</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.395833333333333</c:v>
+                  <c:v>7.1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7904,8 +7913,18 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Urun 2</c:v>
+            <c:v>Urun 2 - Gunluk</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Aylik!$C$1:$C$12</c:f>
@@ -7913,48 +7932,173 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.035087719298246</c:v>
+                  <c:v>11.53333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.252336448598131</c:v>
+                  <c:v>8.033333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.051020408163265</c:v>
+                  <c:v>6.483870967741935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.115044247787611</c:v>
+                  <c:v>7.709677419354839</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.018181818181818</c:v>
+                  <c:v>11.06666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.623931623931624</c:v>
+                  <c:v>13.67741935483871</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.038834951456311</c:v>
+                  <c:v>10.43333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.279569892473118</c:v>
+                  <c:v>9.838709677419354</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.67741935483871</c:v>
+                  <c:v>8.03225806451613</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.714285714285714</c:v>
+                  <c:v>8.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.408602150537634</c:v>
+                  <c:v>10.2258064516129</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.104166666666667</c:v>
+                  <c:v>9.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Urun 1 - Aylik</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Aylik!$D$1:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Urun 2 - Aylik</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Aylik!$E$1:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
         <c:axId val="50040001"/>
         <c:axId val="50040002"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="50040001"/>
         <c:scaling>
@@ -8100,13 +8244,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -15514,142 +15658,214 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B1">
-        <v>0.8859649122807017</v>
-      </c>
-      <c r="C1">
-        <v>3.035087719298246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B1" s="2">
+        <v>3.366666666666667</v>
+      </c>
+      <c r="C1" s="2">
+        <v>11.53333333333333</v>
+      </c>
+      <c r="D1" s="2">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B2">
-        <v>0.6355140186915887</v>
-      </c>
-      <c r="C2">
-        <v>2.252336448598131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B2" s="2">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.033333333333333</v>
+      </c>
+      <c r="D2" s="2">
+        <v>68</v>
+      </c>
+      <c r="E2" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B3">
-        <v>0.9591836734693877</v>
-      </c>
-      <c r="C3">
-        <v>2.051020408163265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B3" s="2">
+        <v>3.032258064516129</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.483870967741935</v>
+      </c>
+      <c r="D3" s="2">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B4">
-        <v>0.7522123893805309</v>
-      </c>
-      <c r="C4">
-        <v>2.115044247787611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B4" s="2">
+        <v>2.741935483870968</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.709677419354839</v>
+      </c>
+      <c r="D4" s="2">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B5">
-        <v>0.7363636363636363</v>
-      </c>
-      <c r="C5">
-        <v>3.018181818181818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B5" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11.06666666666667</v>
+      </c>
+      <c r="D5" s="2">
+        <v>81</v>
+      </c>
+      <c r="E5" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B6">
-        <v>1.324786324786325</v>
-      </c>
-      <c r="C6">
-        <v>3.623931623931624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13.67741935483871</v>
+      </c>
+      <c r="D6" s="2">
+        <v>155</v>
+      </c>
+      <c r="E6" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B7">
-        <v>1.621359223300971</v>
-      </c>
-      <c r="C7">
-        <v>3.038834951456311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B7" s="2">
+        <v>5.566666666666666</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10.43333333333333</v>
+      </c>
+      <c r="D7" s="2">
+        <v>167</v>
+      </c>
+      <c r="E7" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B8">
-        <v>1.655913978494624</v>
-      </c>
-      <c r="C8">
-        <v>3.279569892473118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B8" s="2">
+        <v>4.967741935483871</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.838709677419354</v>
+      </c>
+      <c r="D8" s="2">
+        <v>154</v>
+      </c>
+      <c r="E8" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B9">
-        <v>2.268817204301075</v>
-      </c>
-      <c r="C9">
-        <v>2.67741935483871</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B9" s="2">
+        <v>6.806451612903226</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.03225806451613</v>
+      </c>
+      <c r="D9" s="2">
+        <v>211</v>
+      </c>
+      <c r="E9" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B10">
-        <v>2.321428571428572</v>
-      </c>
-      <c r="C10">
-        <v>2.714285714285714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B10" s="2">
+        <v>6.964285714285714</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.142857142857142</v>
+      </c>
+      <c r="D10" s="2">
+        <v>195</v>
+      </c>
+      <c r="E10" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B11">
-        <v>2.096774193548387</v>
-      </c>
-      <c r="C11">
-        <v>3.408602150537634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B11" s="2">
+        <v>6.290322580645161</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.2258064516129</v>
+      </c>
+      <c r="D11" s="2">
+        <v>195</v>
+      </c>
+      <c r="E11" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B12">
-        <v>2.395833333333333</v>
-      </c>
-      <c r="C12">
-        <v>3.104166666666667</v>
+      <c r="B12" s="2">
+        <v>7.1875</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.3125</v>
+      </c>
+      <c r="D12" s="2">
+        <v>115</v>
+      </c>
+      <c r="E12" s="2">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t>Tarih</t>
   </si>
@@ -1078,6 +1078,15 @@
   </si>
   <si>
     <t>Hafta</t>
+  </si>
+  <si>
+    <t>H. Ici Ort</t>
+  </si>
+  <si>
+    <t>H. Sonu Ort</t>
+  </si>
+  <si>
+    <t>Toplam</t>
   </si>
   <si>
     <t>Ay</t>
@@ -4648,7 +4657,7 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4807,7 +4816,7 @@
                   <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4973,7 +4982,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5239,162 +5248,165 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Haftalik!$B$52:$B$101</c:f>
+              <c:f>Haftalik!$B$52:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>9.800000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9.6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>6.8</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>6.2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>6.2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>7.2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>7.6</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>4.6</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>5.4</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>5.6</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>14.8</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>11.6</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>8.4</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>11.2</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>9.4</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>8.800000000000001</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>9.4</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>7.6</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>7.6</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>9.199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>7.2</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>8.4</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>6.2</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>9.199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>7.8</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>8.800000000000001</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>7.8</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>7.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -5409,155 +5421,158 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Haftalik!$C$52:$C$101</c:f>
+              <c:f>Haftalik!$C$52:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>13.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>19.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>11.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>12.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>6.5</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>16.5</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>34.5</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>16.5</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>14.5</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>13.5</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>16.5</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>19.5</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>7.5</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>10.5</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>9.5</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>12.5</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>14.5</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>12.5</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>14.5</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>11.5</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>11.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -5652,7 +5667,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Ortalama Satis Miktari (Gunluk Ortalama)</a:t>
+              <a:t>Haftalik Toplam</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5667,7 +5682,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Urun 1</c:v>
+            <c:v>1. Urun</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -5680,90 +5695,319 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Aylik!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Haftalik!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>May</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Haz</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Tem</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Agu</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Eyl</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Eki</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Kas</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Ara</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Oca</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sub</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Mar</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Nis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Aylik!$B$2:$B$13</c:f>
+              <c:f>Haftalik!$D$2:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>3.366666666666667</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.266666666666667</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.032258064516129</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.741935483870968</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.566666666666666</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.967741935483871</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.806451612903226</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.964285714285714</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.290322580645161</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1875</c:v>
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5773,59 +6017,166 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Urun 2</c:v>
+            <c:v>2. Urun</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Aylik!$C$2:$C$13</c:f>
+              <c:f>Haftalik!$D$52:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>11.53333333333333</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.033333333333333</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.483870967741935</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.709677419354839</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.06666666666667</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.67741935483871</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.43333333333333</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.838709677419354</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.03225806451613</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.142857142857142</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.2258064516129</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3125</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5841,7 +6192,36 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hafta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr i="1" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50040002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -5891,6 +6271,245 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Ortalama Satis Miktari (Gunluk Ortalama)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Urun 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aylik!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Haz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tem</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Agu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Eyl</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Eki</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ara</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Oca</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sub</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aylik!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.032258064516129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.741935483870968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.566666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.806451612903226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.964285714285714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.290322580645161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Urun 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Aylik!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11.53333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.033333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.483870967741935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.709677419354839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.06666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.67741935483871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.43333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.838709677419354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.03225806451613</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.2258064516129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50050001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50050002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Ortalama Satis Miktari (Aylik Net)</a:t>
             </a:r>
           </a:p>
@@ -6071,24 +6690,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50050001"/>
-        <c:axId val="50050002"/>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50050001"/>
+        <c:axId val="50060001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50050002"/>
+        <c:crossAx val="50060002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50050002"/>
+        <c:axId val="50060002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6096,7 +6715,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50050001"/>
+        <c:crossAx val="50060001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6207,6 +6826,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10443,24 +11092,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>355</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10470,8 +11122,11 @@
       <c r="C2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10481,8 +11136,11 @@
       <c r="C3" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10492,8 +11150,11 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10503,8 +11164,11 @@
       <c r="C5" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -10514,8 +11178,11 @@
       <c r="C6" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -10525,8 +11192,11 @@
       <c r="C7" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -10536,8 +11206,11 @@
       <c r="C8" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -10547,8 +11220,11 @@
       <c r="C9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -10558,8 +11234,11 @@
       <c r="C10" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10569,8 +11248,11 @@
       <c r="C11" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10580,8 +11262,11 @@
       <c r="C12" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10591,8 +11276,11 @@
       <c r="C13" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10602,8 +11290,11 @@
       <c r="C14" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -10613,8 +11304,11 @@
       <c r="C15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -10624,8 +11318,11 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -10635,8 +11332,11 @@
       <c r="C17" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10646,8 +11346,11 @@
       <c r="C18" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -10657,8 +11360,11 @@
       <c r="C19" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -10668,8 +11374,11 @@
       <c r="C20" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -10679,8 +11388,11 @@
       <c r="C21" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -10690,8 +11402,11 @@
       <c r="C22" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10701,8 +11416,11 @@
       <c r="C23" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10712,8 +11430,11 @@
       <c r="C24" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10723,8 +11444,11 @@
       <c r="C25" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10734,8 +11458,11 @@
       <c r="C26" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10745,8 +11472,11 @@
       <c r="C27" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10756,8 +11486,11 @@
       <c r="C28" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10767,8 +11500,11 @@
       <c r="C29" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10778,8 +11514,11 @@
       <c r="C30" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10789,8 +11528,11 @@
       <c r="C31" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -10800,8 +11542,11 @@
       <c r="C32" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -10811,8 +11556,11 @@
       <c r="C33" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -10822,8 +11570,11 @@
       <c r="C34" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -10833,8 +11584,11 @@
       <c r="C35" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -10844,8 +11598,11 @@
       <c r="C36" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -10855,8 +11612,11 @@
       <c r="C37" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -10866,8 +11626,11 @@
       <c r="C38" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -10877,8 +11640,11 @@
       <c r="C39" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -10888,8 +11654,11 @@
       <c r="C40" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -10899,8 +11668,11 @@
       <c r="C41" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -10910,8 +11682,11 @@
       <c r="C42" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10921,8 +11696,11 @@
       <c r="C43" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -10932,8 +11710,11 @@
       <c r="C44" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -10943,8 +11724,11 @@
       <c r="C45" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -10954,8 +11738,11 @@
       <c r="C46" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -10965,8 +11752,11 @@
       <c r="C47" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -10976,8 +11766,11 @@
       <c r="C48" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -10987,8 +11780,11 @@
       <c r="C49" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -10998,555 +11794,722 @@
       <c r="C50" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>1</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="2">
         <v>10.4</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
+      <c r="D52" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>2</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B53" s="2">
         <v>9.199999999999999</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C53" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
+      <c r="D53" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>3</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B54" s="2">
         <v>10.2</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C54" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2">
+      <c r="D54" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>4</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B55" s="2">
         <v>9.800000000000001</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2">
+      <c r="D55" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>5</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B56" s="2">
         <v>9.6</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2">
+      <c r="D56" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>6</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B57" s="2">
         <v>7.8</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2">
+      <c r="D57" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>7</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B58" s="2">
         <v>5.8</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2">
+      <c r="D58" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>8</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B59" s="2">
         <v>8</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2">
+      <c r="D59" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>9</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B60" s="2">
         <v>6.4</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2">
+      <c r="D60" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>10</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B61" s="2">
         <v>3.2</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2">
+      <c r="D61" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>11</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B62" s="2">
         <v>6.8</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C62" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
+      <c r="D62" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>12</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B63" s="2">
         <v>5</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="2">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
+      <c r="D63" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>13</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B64" s="2">
         <v>6.2</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C64" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2">
+      <c r="D64" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>14</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B65" s="2">
         <v>6</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C65" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2">
+      <c r="D65" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>15</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B66" s="2">
         <v>6.2</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C66" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2">
+      <c r="D66" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>16</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B67" s="2">
         <v>7.2</v>
-      </c>
-      <c r="C66" s="2">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2">
-        <v>17</v>
-      </c>
-      <c r="B67" s="2">
-        <v>7.6</v>
       </c>
       <c r="C67" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="2">
+        <v>17</v>
+      </c>
+      <c r="B68" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="C68" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D68" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>18</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B69" s="2">
         <v>4.6</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C69" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2">
+      <c r="D69" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>19</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B70" s="2">
         <v>5.4</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C70" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2">
+      <c r="D70" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>20</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B71" s="2">
         <v>5.6</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C71" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2">
+      <c r="D71" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>21</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B72" s="2">
         <v>14.8</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C72" s="2">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2">
+      <c r="D72" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>22</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B73" s="2">
         <v>11.6</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C73" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2">
+      <c r="D73" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>23</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B74" s="2">
         <v>8.4</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C74" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2">
+      <c r="D74" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>24</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B75" s="2">
         <v>8.6</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C75" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2">
+      <c r="D75" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>25</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B76" s="2">
         <v>11.2</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C76" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2">
+      <c r="D76" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>26</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B77" s="2">
         <v>9.4</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C77" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2">
+      <c r="D77" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>27</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B78" s="2">
         <v>9</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2">
+      <c r="D78" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>28</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B79" s="2">
         <v>8</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C79" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2">
+      <c r="D79" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>29</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B80" s="2">
         <v>8.800000000000001</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C80" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2">
+      <c r="D80" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>30</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B81" s="2">
         <v>9.4</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C81" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2">
+      <c r="D81" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>31</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B82" s="2">
         <v>7.6</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2">
+      <c r="D82" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>32</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B83" s="2">
         <v>7</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2">
+      <c r="D83" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>33</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B84" s="2">
         <v>9</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C84" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2">
+      <c r="D84" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>34</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B85" s="2">
         <v>8</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C85" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2">
+      <c r="D85" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>35</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B86" s="2">
         <v>7.6</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C86" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2">
+      <c r="D86" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>36</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B87" s="2">
         <v>7</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C87" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2">
+      <c r="D87" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>37</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B88" s="2">
         <v>9.199999999999999</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C88" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2">
+      <c r="D88" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>38</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B89" s="2">
         <v>7.2</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C89" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2">
+      <c r="D89" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>39</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B90" s="2">
         <v>8.4</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C90" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2">
+      <c r="D90" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>40</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B91" s="2">
         <v>4</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C91" s="2">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2">
+      <c r="D91" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>41</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B92" s="2">
         <v>6.4</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2">
+      <c r="D92" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>42</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B93" s="2">
         <v>6.2</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C93" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2">
+      <c r="D93" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>43</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B94" s="2">
         <v>6</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C94" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2">
+      <c r="D94" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>44</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B95" s="2">
         <v>8</v>
-      </c>
-      <c r="C94" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2">
-        <v>45</v>
-      </c>
-      <c r="B95" s="2">
-        <v>9.199999999999999</v>
       </c>
       <c r="C95" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="2">
+        <v>45</v>
+      </c>
+      <c r="B96" s="2">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C96" s="2">
+        <v>16</v>
+      </c>
+      <c r="D96" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>46</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B97" s="2">
         <v>7.8</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C97" s="2">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="2">
+      <c r="D97" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>47</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B98" s="2">
         <v>8.6</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C98" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2">
+      <c r="D98" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>48</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B99" s="2">
         <v>8.800000000000001</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C99" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2">
+      <c r="D99" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>49</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B100" s="2">
         <v>7.8</v>
-      </c>
-      <c r="C99" s="2">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2">
-        <v>50</v>
-      </c>
-      <c r="B100" s="2">
-        <v>7.6</v>
       </c>
       <c r="C100" s="2">
         <v>11.5</v>
+      </c>
+      <c r="D100" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
+        <v>50</v>
+      </c>
+      <c r="B101" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="C101" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="D101" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -11565,24 +12528,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B2" s="2">
         <v>3.366666666666667</v>
@@ -11599,7 +12562,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B3" s="2">
         <v>2.266666666666667</v>
@@ -11616,7 +12579,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B4" s="2">
         <v>3.032258064516129</v>
@@ -11633,7 +12596,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B5" s="2">
         <v>2.741935483870968</v>
@@ -11650,7 +12613,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B6" s="2">
         <v>2.7</v>
@@ -11667,7 +12630,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -11684,7 +12647,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B8" s="2">
         <v>5.566666666666666</v>
@@ -11701,7 +12664,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B9" s="2">
         <v>4.967741935483871</v>
@@ -11718,7 +12681,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B10" s="2">
         <v>6.806451612903226</v>
@@ -11735,7 +12698,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B11" s="2">
         <v>6.964285714285714</v>
@@ -11752,7 +12715,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B12" s="2">
         <v>6.290322580645161</v>
@@ -11769,7 +12732,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B13" s="2">
         <v>7.1875</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Alinan Veriler" sheetId="1" r:id="rId1"/>
     <sheet name="Haftalik" sheetId="2" r:id="rId2"/>
     <sheet name="Aylik" sheetId="3" r:id="rId3"/>
+    <sheet name="Sonuclar" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="378">
   <si>
     <t>Tarih</t>
   </si>
@@ -1138,6 +1139,18 @@
   </si>
   <si>
     <t>Nis</t>
+  </si>
+  <si>
+    <t>Urun 1 - Asil</t>
+  </si>
+  <si>
+    <t>Urun 1 - Tahmin</t>
+  </si>
+  <si>
+    <t>Urun 2 - Asil</t>
+  </si>
+  <si>
+    <t>Urun 2 - Tahmin</t>
   </si>
 </sst>
 </file>
@@ -4669,67 +4682,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4.8</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1.6</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4.8</c:v>
@@ -4738,85 +4751,85 @@
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>4.2</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>5.6</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>5.8</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>6.2</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>4.6</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>5.2</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>4.4</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>6.2</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>4.8</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>4.6</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>6.2</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>5.6</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>7.2</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>5.8</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>5.6</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>6.8</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4835,154 +4848,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>6.5</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>7.5</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>7.5</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>9.5</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>11.5</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5860,154 +5873,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6716,6 +6729,424 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Beklenen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sonuclar!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sonuclar!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bulunan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sonuclar!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hafta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr i="1" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Beklenen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sonuclar!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sonuclar!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bulunan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sonuclar!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hafta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr i="1" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6865,6 +7296,71 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11097,6 +11593,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -11117,13 +11616,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11131,13 +11630,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="C3" s="2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11145,13 +11644,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D4" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11159,13 +11658,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="C5" s="2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11173,13 +11672,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="C6" s="2">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D6" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11187,13 +11686,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="D7" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11201,13 +11700,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="C8" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11215,13 +11714,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11232,10 +11731,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11243,13 +11742,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="D11" s="2">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11257,13 +11756,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="C12" s="2">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11271,10 +11770,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D13" s="2">
         <v>22</v>
@@ -11285,13 +11784,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="C14" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11299,13 +11798,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11313,13 +11812,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -11330,10 +11829,10 @@
         <v>1.8</v>
       </c>
       <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
         <v>11</v>
-      </c>
-      <c r="D17" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -11341,13 +11840,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="C18" s="2">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -11355,13 +11854,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="C19" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11369,13 +11868,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -11383,13 +11882,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="C21" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -11397,13 +11896,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D22" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -11414,10 +11913,10 @@
         <v>4.8</v>
       </c>
       <c r="C23" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -11428,10 +11927,10 @@
         <v>4.8</v>
       </c>
       <c r="C24" s="2">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D24" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -11439,13 +11938,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="C25" s="2">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="D25" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -11453,13 +11952,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="D26" s="2">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11467,13 +11966,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="C27" s="2">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -11481,13 +11980,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D28" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -11495,13 +11994,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="C29" s="2">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -11509,13 +12008,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="D30" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -11526,10 +12025,10 @@
         <v>5.4</v>
       </c>
       <c r="C31" s="2">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -11537,13 +12036,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="C32" s="2">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="D32" s="2">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -11551,13 +12050,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="C33" s="2">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D33" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11565,13 +12064,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="C34" s="2">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="D34" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -11579,13 +12078,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="C35" s="2">
         <v>6</v>
       </c>
-      <c r="C35" s="2">
-        <v>4</v>
-      </c>
       <c r="D35" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -11593,13 +12092,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -11607,13 +12106,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2">
         <v>6.5</v>
       </c>
       <c r="D37" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -11621,13 +12120,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="C38" s="2">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="D38" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -11635,13 +12134,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="C39" s="2">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="D39" s="2">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11649,13 +12148,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="D40" s="2">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -11663,13 +12162,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="C41" s="2">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="D41" s="2">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -11677,13 +12176,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="C42" s="2">
         <v>8.5</v>
       </c>
       <c r="D42" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11691,13 +12190,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="C43" s="2">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="D43" s="2">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -11705,13 +12204,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="C44" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -11719,13 +12218,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="C45" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -11733,13 +12232,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="C46" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -11747,13 +12246,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="C47" s="2">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -11761,13 +12260,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="C48" s="2">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="D48" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -11775,13 +12274,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="C49" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -11789,13 +12288,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="C50" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -11803,13 +12302,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C51" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -12751,4 +13250,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Alinan Veriler" sheetId="1" r:id="rId1"/>
+    <sheet name="Gunluk" sheetId="1" r:id="rId1"/>
     <sheet name="Haftalik" sheetId="2" r:id="rId2"/>
     <sheet name="Aylik" sheetId="3" r:id="rId3"/>
     <sheet name="Sonuclar" sheetId="4" r:id="rId4"/>
@@ -1255,7 +1255,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Alinan Veriler'!$A$2:$A$350</c:f>
+              <c:f>Gunluk!$A$2:$A$350</c:f>
               <c:strCache>
                 <c:ptCount val="349"/>
                 <c:pt idx="0">
@@ -2310,7 +2310,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Alinan Veriler'!$B$2:$B$350</c:f>
+              <c:f>Gunluk!$B$2:$B$350</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="349"/>
@@ -3383,7 +3383,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Alinan Veriler'!$C$2:$C$350</c:f>
+              <c:f>Gunluk!$C$2:$C$350</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="349"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="382">
   <si>
     <t>Tarih</t>
   </si>
@@ -1147,10 +1147,22 @@
     <t>Urun 1 - Tahmin</t>
   </si>
   <si>
+    <t>Urun 1 - Hata Orani (%)</t>
+  </si>
+  <si>
     <t>Urun 2 - Asil</t>
   </si>
   <si>
     <t>Urun 2 - Tahmin</t>
+  </si>
+  <si>
+    <t>Urun 2 - Hata Orani (%)</t>
+  </si>
+  <si>
+    <t>Urun 1 - Ort Hata Orani(%)</t>
+  </si>
+  <si>
+    <t>Urun 2 - Ort Hata Orani(%)</t>
   </si>
 </sst>
 </file>
@@ -6751,6 +6763,24 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Urun 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -6879,6 +6909,42 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50.67928380862199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.1312762264841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.14410665101401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.00480379250894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.42040717787984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.52282102289324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.78066788476522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.23637503178657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.4808074759141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.35708974153347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.31675661776682</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.68925704747976</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6960,6 +7026,24 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Urun 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -7025,7 +7109,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sonuclar!$D$2:$D$13</c:f>
+              <c:f>Sonuclar!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7084,10 +7168,46 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sonuclar!$E$2:$E$13</c:f>
+              <c:f>Sonuclar!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>62.11669024335037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.04855444248954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.6435954525444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.33418701443474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.1797533701476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.66490008104256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.86516228994445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.55783020454864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.2383679426521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.49537601359523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.32198451797207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.89323943573206</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7364,15 +7484,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7394,15 +7514,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13254,16 +13374,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="16.7109375" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="9" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>353</v>
       </c>
@@ -13279,137 +13402,299 @@
       <c r="E1" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>39</v>
       </c>
       <c r="B2" s="2">
         <v>63</v>
       </c>
+      <c r="C2" s="2">
+        <v>50.67928380862199</v>
+      </c>
       <c r="D2" s="2">
+        <v>19.55669236726668</v>
+      </c>
+      <c r="E2" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2">
+        <v>62.11669024335037</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.830639743197327</v>
+      </c>
+      <c r="H2" s="2">
+        <v>14.61804475865634</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5.413873885610667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>40</v>
       </c>
       <c r="B3" s="2">
         <v>34</v>
       </c>
+      <c r="C3" s="2">
+        <v>55.1312762264841</v>
+      </c>
       <c r="D3" s="2">
+        <v>62.1508124308356</v>
+      </c>
+      <c r="E3" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2">
+        <v>46.04855444248954</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.330120983310088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>48</v>
       </c>
+      <c r="C4" s="2">
+        <v>46.14410665101401</v>
+      </c>
       <c r="D4" s="2">
+        <v>3.866444477054154</v>
+      </c>
+      <c r="E4" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2">
+        <v>60.6435954525444</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.24438210539937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>45</v>
       </c>
+      <c r="C5" s="2">
+        <v>42.00480379250894</v>
+      </c>
       <c r="D5" s="2">
+        <v>6.65599157220236</v>
+      </c>
+      <c r="E5" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2">
+        <v>54.33418701443474</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9.443021642608768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>62</v>
       </c>
+      <c r="C6" s="2">
+        <v>51.42040717787984</v>
+      </c>
       <c r="D6" s="2">
+        <v>17.06385939051639</v>
+      </c>
+      <c r="E6" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2">
+        <v>59.1797533701476</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.678131018120717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>44</v>
       </c>
       <c r="B7" s="2">
         <v>48</v>
       </c>
+      <c r="C7" s="2">
+        <v>54.52282102289324</v>
+      </c>
       <c r="D7" s="2">
+        <v>13.58921046436092</v>
+      </c>
+      <c r="E7" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2">
+        <v>64.66490008104256</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10.18763877632978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>51</v>
       </c>
+      <c r="C8" s="2">
+        <v>52.78066788476522</v>
+      </c>
       <c r="D8" s="2">
+        <v>3.491505656402397</v>
+      </c>
+      <c r="E8" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2">
+        <v>70.86516228994445</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9.14722783340455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>40</v>
       </c>
+      <c r="C9" s="2">
+        <v>50.23637503178657</v>
+      </c>
       <c r="D9" s="2">
+        <v>25.59093757946641</v>
+      </c>
+      <c r="E9" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2">
+        <v>68.55783020454864</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.121609694607245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>39</v>
       </c>
+      <c r="C10" s="2">
+        <v>44.4808074759141</v>
+      </c>
       <c r="D10" s="2">
+        <v>14.05335250234386</v>
+      </c>
+      <c r="E10" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2">
+        <v>72.2383679426521</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.3310665870168114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>48</v>
       </c>
       <c r="B11" s="2">
         <v>44</v>
       </c>
+      <c r="C11" s="2">
+        <v>43.35708974153347</v>
+      </c>
       <c r="D11" s="2">
+        <v>1.46115967833302</v>
+      </c>
+      <c r="E11" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2">
+        <v>67.49537601359523</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3.578034266292524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>49</v>
       </c>
       <c r="B12" s="2">
         <v>50</v>
       </c>
+      <c r="C12" s="2">
+        <v>47.31675661776682</v>
+      </c>
       <c r="D12" s="2">
+        <v>5.366486764466359</v>
+      </c>
+      <c r="E12" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="2">
+        <v>66.32198451797207</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6.970942770922692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>51</v>
       </c>
+      <c r="C13" s="2">
+        <v>49.68925704747976</v>
+      </c>
       <c r="D13" s="2">
+        <v>2.570084220627928</v>
+      </c>
+      <c r="E13" s="2">
         <v>61</v>
+      </c>
+      <c r="F13" s="2">
+        <v>62.89323943573206</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.103671206118136</v>
       </c>
     </row>
   </sheetData>
